--- a/biology/Botanique/Direction_régionale_de_l'Alimentation,_de_l'Agriculture_et_de_la_Forêt/Direction_régionale_de_l'Alimentation,_de_l'Agriculture_et_de_la_Forêt.xlsx
+++ b/biology/Botanique/Direction_régionale_de_l'Alimentation,_de_l'Agriculture_et_de_la_Forêt/Direction_régionale_de_l'Alimentation,_de_l'Agriculture_et_de_la_Forêt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Direction_r%C3%A9gionale_de_l%27Alimentation,_de_l%27Agriculture_et_de_la_For%C3%AAt</t>
+          <t>Direction_régionale_de_l'Alimentation,_de_l'Agriculture_et_de_la_Forêt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, les directions régionales de l’Alimentation, de l’Agriculture et de la Forêt (DRAAF ou DAAF dans les départements et régions d’outre-mer) sont des services déconcentrés du ministère de l'Agriculture et de l'Alimentation qui ont pour mission de mettre en œuvre au niveau de la région la politique nationale en matière d’alimentation, d’agriculture et de forêt.
 Les DRAAF ont été créées et sont régies par le décret no 2008-1406 du 19 décembre 2008. Elles se substituent aux directions régionales de l'Agriculture et de la Forêt (DRAF) créées par décret du 28 décembre 1984, à la suite des lois de décentralisation et de déconcentration de 1982. Elles sont sous l'autorité fonctionnelle du préfet de région et hiérarchique du ministre de l'agriculture.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Direction_r%C3%A9gionale_de_l%27Alimentation,_de_l%27Agriculture_et_de_la_For%C3%AAt</t>
+          <t>Direction_régionale_de_l'Alimentation,_de_l'Agriculture_et_de_la_Forêt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Connaissance sociale et économique des territoires ruraux, agricoles et forestiers et des hommes qui y vivent et y travaillent
 Programmation et accompagnement de la politique régionale dans le cadre principalement du contrat de plan État-région
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Direction_r%C3%A9gionale_de_l%27Alimentation,_de_l%27Agriculture_et_de_la_For%C3%AAt</t>
+          <t>Direction_régionale_de_l'Alimentation,_de_l'Agriculture_et_de_la_Forêt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Domaines d'intervention</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les DRAAF interviennent dans les domaines suivants :
 forêt et filière bois ;
@@ -561,8 +577,8 @@
 politique sociale agricole ;
 statistiques agricoles ;
 enseignement agricole ;
-versement des aides PAC (politique agricole commune)[1].
-Les DRAAF disposent d'un membre permanent dans le groupe de coordination inter-bassins du système d'information sur l'eau[2].
+versement des aides PAC (politique agricole commune).
+Les DRAAF disposent d'un membre permanent dans le groupe de coordination inter-bassins du système d'information sur l'eau.
 </t>
         </is>
       </c>
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Direction_r%C3%A9gionale_de_l%27Alimentation,_de_l%27Agriculture_et_de_la_For%C3%AAt</t>
+          <t>Direction_régionale_de_l'Alimentation,_de_l'Agriculture_et_de_la_Forêt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,14 +607,16 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On trouve dans chaque DRAAF une organisation relativement homogène.
 En particulier, on trouve toujours :
 un service régional de l'Alimentation (SRAL), en relation avec la DGAL ;
 un service régional de la Formation et du Développement (SRFD), en relation avec la DGER ;
 un service régional pour l'information statistique et économique (SRISE), en relation avec le service de la Statistique et de la Prospective (SSP) ;
-un service régional de FranceAgriMer, en relation avec FranceAgriMer[3] (parfois regroupé avec le service chargé de l'Économie agricole) ;
+un service régional de FranceAgriMer, en relation avec FranceAgriMer (parfois regroupé avec le service chargé de l'Économie agricole) ;
 un service régional de l'Économie agricole et agroalimentaire (SREAA), en relation avec la DGPE ;
 un service régional de la Forêt et du Bois (SRFB ou SeRFoB), en relation avec la DGPE.
 Les sièges régionaux des différentes DRAAF se situent dans les villes suivantes :
@@ -624,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Direction_r%C3%A9gionale_de_l%27Alimentation,_de_l%27Agriculture_et_de_la_For%C3%AAt</t>
+          <t>Direction_régionale_de_l'Alimentation,_de_l'Agriculture_et_de_la_Forêt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -642,7 +660,9 @@
           <t>Partenaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La DRAAF travaille en collaboration avec différents partenaires :
 Chambre régionale d'agriculture ;
